--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149607.0285860405</v>
+        <v>-151531.6321528988</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155032</v>
+        <v>3180051.965155033</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F2" t="n">
+        <v>63.01265906493294</v>
+      </c>
+      <c r="G2" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>173.3217671684648</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,13 +744,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>88.56843975441302</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>74.41584398117709</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7.203367682519136</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.203367682519136</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>341.8733101690336</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>341.8733101690336</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>165.6173557114583</v>
+        <v>341.8733101690329</v>
       </c>
       <c r="G5" t="n">
-        <v>14.93452779272217</v>
+        <v>315.6262672635233</v>
       </c>
       <c r="H5" t="n">
-        <v>335.7038742961062</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.7395639656316</v>
+        <v>126.7395639656318</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>200.6294905367619</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>341.8733101690329</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>137.0876376349458</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>87.92595927923674</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.023804751134</v>
       </c>
       <c r="T6" t="n">
-        <v>197.9145431354178</v>
+        <v>199.3706418758996</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>98.57805073411286</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>76.866520873612</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780086065</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>269.2712215852829</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,19 +1181,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>25.51890522568425</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>165.3902575986303</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>38.39834678541102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2714703996738558</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>187.832639942108</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>164.9633111243056</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>207.178954638888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>20.53226464137184</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.348205986801</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>129.7991263300491</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>58.422471192261</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>80.2737516767063</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>92.0181599214196</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.56326686094042</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407508</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155368</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
-        <v>267.8362668557249</v>
+        <v>200.4724286723852</v>
       </c>
       <c r="V25" t="n">
         <v>233.7365577809756</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
         <v>207.3085698461848</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557754</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800788</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246837</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.70367136517916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>78.82493908977955</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407508</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
         <v>200.1835678092424</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>161.4308946390849</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557754</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>123.477463198021</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>92.0181599214196</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>15.08663654379077</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>314.60195153384</v>
       </c>
       <c r="C35" t="n">
-        <v>297.1410016413669</v>
+        <v>297.1410016413656</v>
       </c>
       <c r="D35" t="n">
         <v>286.5511514910423</v>
@@ -3278,7 +3278,7 @@
         <v>338.7441556120708</v>
       </c>
       <c r="G35" t="n">
-        <v>343.8326266600505</v>
+        <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
         <v>237.1553589816771</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555825</v>
       </c>
       <c r="T35" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W35" t="n">
         <v>281.1090785877724</v>
@@ -3332,7 +3332,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3518,7 +3518,7 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
         <v>13.64724492310009</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555815</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
         <v>182.9467051201603</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404945</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.1060485264129</v>
+        <v>318.1060485264117</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310013</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555822</v>
+        <v>64.81847467555821</v>
       </c>
       <c r="T41" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V41" t="n">
         <v>259.6203683404943</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463136</v>
@@ -3989,7 +3989,7 @@
         <v>338.7441556120708</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8326266600505</v>
+        <v>343.8326266600508</v>
       </c>
       <c r="H44" t="n">
         <v>237.1553589816771</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W44" t="n">
         <v>281.1090785877724</v>
@@ -4043,7 +4043,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.1060485264129</v>
+        <v>318.1060485264117</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2303018926189</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2303018926189</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2303018926189</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="E2" t="n">
-        <v>683.2303018926189</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="F2" t="n">
-        <v>404.2843284558962</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="G2" t="n">
         <v>229.2118363665377</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293416</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293416</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293416</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="X2" t="n">
-        <v>962.1762753293416</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="Y2" t="n">
-        <v>683.2303018926189</v>
+        <v>850.7529338106224</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>399.1447369878966</v>
+        <v>246.1944499303459</v>
       </c>
       <c r="C3" t="n">
-        <v>399.1447369878966</v>
+        <v>246.1944499303459</v>
       </c>
       <c r="D3" t="n">
-        <v>250.2103273266453</v>
+        <v>97.26004026909459</v>
       </c>
       <c r="E3" t="n">
-        <v>160.7472568676422</v>
+        <v>97.26004026909459</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676422</v>
+        <v>97.26004026909459</v>
       </c>
       <c r="G3" t="n">
         <v>22.09252109618843</v>
@@ -4413,10 +4413,10 @@
         <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="M3" t="n">
-        <v>405.6478494291521</v>
+        <v>288.9361218459457</v>
       </c>
       <c r="N3" t="n">
         <v>562.3310704112776</v>
@@ -4431,28 +4431,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.17674519153</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>634.2968452196393</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>634.2968452196393</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V3" t="n">
-        <v>399.1447369878966</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="W3" t="n">
-        <v>399.1447369878966</v>
+        <v>622.1700857153678</v>
       </c>
       <c r="X3" t="n">
-        <v>399.1447369878966</v>
+        <v>622.1700857153678</v>
       </c>
       <c r="Y3" t="n">
-        <v>399.1447369878966</v>
+        <v>414.4097869504139</v>
       </c>
     </row>
     <row r="4">
@@ -4480,13 +4480,13 @@
         <v>29.36865006842999</v>
       </c>
       <c r="H4" t="n">
-        <v>29.36865006842999</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>29.36865006842999</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>29.36865006842999</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618843</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.473479094688</v>
+        <v>691.4908521191351</v>
       </c>
       <c r="C5" t="n">
-        <v>894.1469031663714</v>
+        <v>691.4908521191351</v>
       </c>
       <c r="D5" t="n">
-        <v>894.1469031663714</v>
+        <v>691.4908521191351</v>
       </c>
       <c r="E5" t="n">
-        <v>548.8203272380547</v>
+        <v>691.4908521191351</v>
       </c>
       <c r="F5" t="n">
-        <v>381.5300689436524</v>
+        <v>346.164276190819</v>
       </c>
       <c r="G5" t="n">
-        <v>366.4446873348421</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="H5" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="I5" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488082005</v>
+        <v>46.45889488081974</v>
       </c>
       <c r="K5" t="n">
-        <v>195.843181694346</v>
+        <v>195.8431816943454</v>
       </c>
       <c r="L5" t="n">
-        <v>433.4442264909783</v>
+        <v>433.4442264909775</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203066</v>
+        <v>714.4277151203055</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090378</v>
+        <v>985.3258128090363</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860207</v>
+        <v>1195.939566860205</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313932</v>
+        <v>1338.01915031393</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="R5" t="n">
-        <v>1239.473479094688</v>
+        <v>1239.473479094685</v>
       </c>
       <c r="S5" t="n">
-        <v>1239.473479094688</v>
+        <v>1036.817428047451</v>
       </c>
       <c r="T5" t="n">
-        <v>1239.473479094688</v>
+        <v>1036.817428047451</v>
       </c>
       <c r="U5" t="n">
-        <v>1239.473479094688</v>
+        <v>1036.817428047451</v>
       </c>
       <c r="V5" t="n">
-        <v>1239.473479094688</v>
+        <v>1036.817428047451</v>
       </c>
       <c r="W5" t="n">
-        <v>1239.473479094688</v>
+        <v>1036.817428047451</v>
       </c>
       <c r="X5" t="n">
-        <v>1239.473479094688</v>
+        <v>691.4908521191351</v>
       </c>
       <c r="Y5" t="n">
-        <v>1239.473479094688</v>
+        <v>691.4908521191351</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509.9747587613565</v>
+        <v>277.2694447968038</v>
       </c>
       <c r="C6" t="n">
-        <v>335.5217294802295</v>
+        <v>277.2694447968038</v>
       </c>
       <c r="D6" t="n">
-        <v>186.5873198189782</v>
+        <v>138.7970835493839</v>
       </c>
       <c r="E6" t="n">
-        <v>27.34986481352269</v>
+        <v>138.7970835493839</v>
       </c>
       <c r="F6" t="n">
-        <v>27.34986481352269</v>
+        <v>138.7970835493839</v>
       </c>
       <c r="G6" t="n">
-        <v>27.34986481352269</v>
+        <v>138.7970835493839</v>
       </c>
       <c r="H6" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="I6" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="J6" t="n">
-        <v>27.34986481352269</v>
+        <v>45.03769252864029</v>
       </c>
       <c r="K6" t="n">
-        <v>27.34986481352269</v>
+        <v>123.1143406038991</v>
       </c>
       <c r="L6" t="n">
-        <v>299.6613442303253</v>
+        <v>395.4258200207014</v>
       </c>
       <c r="M6" t="n">
-        <v>513.992934270118</v>
+        <v>733.880397088044</v>
       </c>
       <c r="N6" t="n">
-        <v>852.4475113374613</v>
+        <v>1072.334974155387</v>
       </c>
       <c r="O6" t="n">
-        <v>1147.605777858207</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="P6" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676134</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="R6" t="n">
-        <v>1367.493240676134</v>
+        <v>1278.679140394074</v>
       </c>
       <c r="S6" t="n">
-        <v>1367.493240676134</v>
+        <v>1108.958125493939</v>
       </c>
       <c r="T6" t="n">
-        <v>1167.579560741369</v>
+        <v>907.5736387506063</v>
       </c>
       <c r="U6" t="n">
-        <v>1167.579560741369</v>
+        <v>907.5736387506063</v>
       </c>
       <c r="V6" t="n">
-        <v>932.4274525096262</v>
+        <v>907.5736387506063</v>
       </c>
       <c r="W6" t="n">
-        <v>678.1900957814246</v>
+        <v>653.3362820224047</v>
       </c>
       <c r="X6" t="n">
-        <v>678.1900957814246</v>
+        <v>445.4847818168719</v>
       </c>
       <c r="Y6" t="n">
-        <v>678.1900957814246</v>
+        <v>445.4847818168719</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="C7" t="n">
-        <v>108.1041099182682</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="D7" t="n">
-        <v>108.1041099182682</v>
+        <v>126.9236534338387</v>
       </c>
       <c r="E7" t="n">
-        <v>108.1041099182682</v>
+        <v>126.9236534338387</v>
       </c>
       <c r="F7" t="n">
-        <v>108.1041099182682</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="G7" t="n">
-        <v>108.1041099182682</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="H7" t="n">
-        <v>30.46115954088235</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="I7" t="n">
-        <v>30.46115954088235</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="J7" t="n">
-        <v>30.46115954088235</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="K7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953545</v>
+        <v>78.97414292953525</v>
       </c>
       <c r="M7" t="n">
-        <v>143.7938290394789</v>
+        <v>143.7938290394785</v>
       </c>
       <c r="N7" t="n">
-        <v>212.506864314703</v>
+        <v>212.5068643147025</v>
       </c>
       <c r="O7" t="n">
-        <v>259.9581784039159</v>
+        <v>259.9581784039153</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="R7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="S7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="T7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="V7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="W7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="X7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
       <c r="Y7" t="n">
-        <v>277.0402928461751</v>
+        <v>277.0402928461744</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626212</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
         <v>882.8926947117852</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2397.709062575643</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.9169416640003</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942401</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,7 +5030,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,13 +5039,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
         <v>1198.760773441947</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0324822735074</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0324822735074</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>355.9158428611718</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>355.9158428611718</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>209.0258953632614</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>209.0258953632614</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150549</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170375</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735074</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5373,7 +5373,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829216</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.063975947119</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1332.286663361634</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>1077.602175155747</v>
       </c>
       <c r="W16" t="n">
-        <v>745.8314722131613</v>
+        <v>788.1850051187861</v>
       </c>
       <c r="X16" t="n">
-        <v>745.8314722131613</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.8314722131613</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.7235151749151</v>
+        <v>268.0733921265326</v>
       </c>
       <c r="C19" t="n">
-        <v>563.7235151749151</v>
+        <v>268.0733921265326</v>
       </c>
       <c r="D19" t="n">
-        <v>563.7235151749151</v>
+        <v>117.9567527141968</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>117.9567527141968</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>898.5039869983198</v>
       </c>
       <c r="X19" t="n">
-        <v>954.8146123150548</v>
+        <v>670.5144361003024</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.3719800051548</v>
+        <v>449.7218569567723</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,40 +5741,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.1765965867972</v>
+        <v>244.1070389581959</v>
       </c>
       <c r="C22" t="n">
-        <v>376.2404136588902</v>
+        <v>244.1070389581959</v>
       </c>
       <c r="D22" t="n">
-        <v>376.2404136588902</v>
+        <v>244.1070389581959</v>
       </c>
       <c r="E22" t="n">
-        <v>228.327320076497</v>
+        <v>244.1070389581959</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>820.5263570570738</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150543</v>
+        <v>531.1091870201133</v>
       </c>
       <c r="X22" t="n">
-        <v>726.825061417037</v>
+        <v>303.1196361220959</v>
       </c>
       <c r="Y22" t="n">
-        <v>726.825061417037</v>
+        <v>244.1070389581959</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>271.2493253977868</v>
+        <v>246.8054580466746</v>
       </c>
       <c r="C25" t="n">
-        <v>271.2493253977868</v>
+        <v>246.8054580466746</v>
       </c>
       <c r="D25" t="n">
-        <v>271.2493253977868</v>
+        <v>246.8054580466746</v>
       </c>
       <c r="E25" t="n">
-        <v>271.2493253977868</v>
+        <v>246.8054580466746</v>
       </c>
       <c r="F25" t="n">
-        <v>190.1647277445481</v>
+        <v>246.8054580466746</v>
       </c>
       <c r="G25" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>127.8168586116196</v>
@@ -6154,7 +6154,7 @@
         <v>562.148457242208</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968146</v>
+        <v>851.9322746968148</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
@@ -6166,31 +6166,31 @@
         <v>1587.602350397714</v>
       </c>
       <c r="Q25" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1644.652868057294</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.319813066636</v>
+        <v>1370.831664722252</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.121352949932</v>
+        <v>1165.633204605548</v>
       </c>
       <c r="U25" t="n">
-        <v>987.5796692572808</v>
+        <v>963.1358019061687</v>
       </c>
       <c r="V25" t="n">
-        <v>751.4821361451842</v>
+        <v>727.0382687940721</v>
       </c>
       <c r="W25" t="n">
-        <v>480.6519212020139</v>
+        <v>456.2080538509017</v>
       </c>
       <c r="X25" t="n">
-        <v>271.2493253977868</v>
+        <v>246.8054580466746</v>
       </c>
       <c r="Y25" t="n">
-        <v>271.2493253977868</v>
+        <v>246.8054580466746</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>990.572505324245</v>
+        <v>225.5200838644059</v>
       </c>
       <c r="C28" t="n">
-        <v>840.2232774901283</v>
+        <v>225.5200838644059</v>
       </c>
       <c r="D28" t="n">
-        <v>708.693593171583</v>
+        <v>225.5200838644059</v>
       </c>
       <c r="E28" t="n">
-        <v>579.3674546829802</v>
+        <v>225.5200838644059</v>
       </c>
       <c r="F28" t="n">
-        <v>451.0644622788602</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>301.4760956924711</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>169.6450423342042</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436549</v>
+        <v>296.219337543655</v>
       </c>
       <c r="L28" t="n">
         <v>562.148457242208</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968146</v>
+        <v>851.9322746968148</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
@@ -6403,31 +6403,31 @@
         <v>1587.602350397714</v>
       </c>
       <c r="Q28" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1644.652868057294</v>
+        <v>1565.031717461556</v>
       </c>
       <c r="S28" t="n">
-        <v>1463.319813066636</v>
+        <v>1383.698662470899</v>
       </c>
       <c r="T28" t="n">
-        <v>1463.319813066636</v>
+        <v>1178.500202354195</v>
       </c>
       <c r="U28" t="n">
-        <v>1192.778129373985</v>
+        <v>907.9585186615433</v>
       </c>
       <c r="V28" t="n">
-        <v>1192.778129373985</v>
+        <v>907.9585186615433</v>
       </c>
       <c r="W28" t="n">
-        <v>1192.778129373985</v>
+        <v>637.1283037183729</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.778129373985</v>
+        <v>427.7257079141458</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.572505324245</v>
+        <v>225.5200838644059</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>614.8270324660851</v>
+        <v>486.6772757112753</v>
       </c>
       <c r="C31" t="n">
-        <v>464.4778046319685</v>
+        <v>486.6772757112753</v>
       </c>
       <c r="D31" t="n">
-        <v>464.4778046319685</v>
+        <v>486.6772757112753</v>
       </c>
       <c r="E31" t="n">
-        <v>464.4778046319685</v>
+        <v>357.3511372226725</v>
       </c>
       <c r="F31" t="n">
-        <v>464.4778046319685</v>
+        <v>229.0481448185524</v>
       </c>
       <c r="G31" t="n">
-        <v>314.8894380455794</v>
+        <v>229.0481448185524</v>
       </c>
       <c r="H31" t="n">
-        <v>190.1647277445481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>127.8168586116196</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L31" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968147</v>
+        <v>851.9322746968148</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
@@ -6640,31 +6640,31 @@
         <v>1587.602350397714</v>
       </c>
       <c r="Q31" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057294</v>
+        <v>1629.413841245383</v>
       </c>
       <c r="S31" t="n">
-        <v>1463.319813066636</v>
+        <v>1629.413841245383</v>
       </c>
       <c r="T31" t="n">
-        <v>1258.121352949932</v>
+        <v>1629.413841245383</v>
       </c>
       <c r="U31" t="n">
-        <v>1258.121352949932</v>
+        <v>1358.872157552732</v>
       </c>
       <c r="V31" t="n">
-        <v>1258.121352949932</v>
+        <v>1122.774624440635</v>
       </c>
       <c r="W31" t="n">
-        <v>987.2911380067615</v>
+        <v>851.9444094974647</v>
       </c>
       <c r="X31" t="n">
-        <v>777.8885422025345</v>
+        <v>851.9444094974647</v>
       </c>
       <c r="Y31" t="n">
-        <v>777.8885422025345</v>
+        <v>649.7387854477248</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,16 +6683,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,7 +6701,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6889,16 +6889,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010318</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C35" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E35" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872895</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G35" t="n">
         <v>329.485680192289</v>
@@ -6932,55 +6932,55 @@
         <v>89.93481253402933</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K35" t="n">
-        <v>868.2168169432325</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L35" t="n">
-        <v>1569.82097298703</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M35" t="n">
-        <v>2145.577273170401</v>
+        <v>1754.673279528664</v>
       </c>
       <c r="N35" t="n">
-        <v>2508.148939106568</v>
+        <v>2550.218400632695</v>
       </c>
       <c r="O35" t="n">
-        <v>3214.172000130764</v>
+        <v>3105.7831197943</v>
       </c>
       <c r="P35" t="n">
-        <v>3460.491244296799</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q35" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R35" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T35" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>212.7178686028333</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
-        <v>623.6081374473459</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L36" t="n">
-        <v>870.37326535381</v>
+        <v>1267.258257405874</v>
       </c>
       <c r="M36" t="n">
-        <v>1177.693398633771</v>
+        <v>1574.578390685836</v>
       </c>
       <c r="N36" t="n">
-        <v>1507.556026297804</v>
+        <v>1904.441018349868</v>
       </c>
       <c r="O36" t="n">
-        <v>1787.096091516501</v>
+        <v>2183.981083568565</v>
       </c>
       <c r="P36" t="n">
-        <v>2307.396713252248</v>
+        <v>2389.003564350775</v>
       </c>
       <c r="Q36" t="n">
         <v>2602.506130567962</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147916</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424966</v>
+        <v>456.980224042497</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001445</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422752</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021369</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901212</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443637</v>
+        <v>155.9829803443646</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173194</v>
+        <v>373.6189558173203</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567929</v>
+        <v>688.7815720567937</v>
       </c>
       <c r="M37" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N37" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P37" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q37" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R37" t="n">
         <v>1975.198453178347</v>
@@ -7126,19 +7126,19 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V37" t="n">
         <v>1282.960265051241</v>
       </c>
       <c r="W37" t="n">
-        <v>1062.363186054321</v>
+        <v>1062.363186054322</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963448</v>
+        <v>903.1937261963453</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928557</v>
+        <v>751.2212380928562</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872897</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922889</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
         <v>89.93481253402931</v>
       </c>
       <c r="I38" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K38" t="n">
-        <v>773.1344404748492</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L38" t="n">
-        <v>1474.738596518647</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M38" t="n">
-        <v>1826.996552080634</v>
+        <v>2199.691677686568</v>
       </c>
       <c r="N38" t="n">
-        <v>2189.5682180168</v>
+        <v>2562.263343622735</v>
       </c>
       <c r="O38" t="n">
-        <v>2895.591279040996</v>
+        <v>3268.28640464693</v>
       </c>
       <c r="P38" t="n">
-        <v>3460.491244296799</v>
+        <v>3611.45594924364</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I39" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>117.6407938174676</v>
+        <v>212.7178686028331</v>
       </c>
       <c r="K39" t="n">
-        <v>528.5310626619803</v>
+        <v>623.6081374473457</v>
       </c>
       <c r="L39" t="n">
-        <v>1078.349780212301</v>
+        <v>870.3732653538098</v>
       </c>
       <c r="M39" t="n">
-        <v>1385.669913492262</v>
+        <v>1177.693398633771</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.532541156295</v>
+        <v>1507.556026297804</v>
       </c>
       <c r="O39" t="n">
-        <v>1995.072606374992</v>
+        <v>1787.096091516501</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.373228110739</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q39" t="n">
         <v>2602.506130567962</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026572</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147914</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424967</v>
       </c>
       <c r="E40" t="n">
         <v>377.8872215001446</v>
@@ -7324,19 +7324,19 @@
         <v>200.4621344021371</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443642</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567934</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
         <v>1027.79888605232</v>
@@ -7357,13 +7357,13 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T40" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V40" t="n">
         <v>1282.960265051241</v>
@@ -7372,10 +7372,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.193726196345</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928556</v>
+        <v>751.2212380928559</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>329.4856801922892</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402936</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I41" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2168169432325</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L41" t="n">
-        <v>1569.82097298703</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M41" t="n">
-        <v>1922.078928549017</v>
+        <v>2199.691677686568</v>
       </c>
       <c r="N41" t="n">
-        <v>2399.760058770105</v>
+        <v>2659.113644053409</v>
       </c>
       <c r="O41" t="n">
-        <v>3105.783119794301</v>
+        <v>3365.136705077605</v>
       </c>
       <c r="P41" t="n">
-        <v>3670.683085050104</v>
+        <v>3611.45594924364</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R41" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S41" t="n">
         <v>3742.012625862513</v>
@@ -7445,7 +7445,7 @@
         <v>3415.449390176633</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873104</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W41" t="n">
         <v>2869.258029643031</v>
@@ -7485,28 +7485,28 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I42" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>117.6407938174676</v>
+        <v>212.7178686028331</v>
       </c>
       <c r="K42" t="n">
-        <v>266.7104780195275</v>
+        <v>623.6081374473457</v>
       </c>
       <c r="L42" t="n">
-        <v>513.4756059259915</v>
+        <v>870.3732653538098</v>
       </c>
       <c r="M42" t="n">
-        <v>820.7957392059532</v>
+        <v>1177.693398633771</v>
       </c>
       <c r="N42" t="n">
-        <v>1325.608845072333</v>
+        <v>1507.556026297804</v>
       </c>
       <c r="O42" t="n">
-        <v>1995.072606374992</v>
+        <v>1787.096091516501</v>
       </c>
       <c r="P42" t="n">
-        <v>2515.373228110739</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q42" t="n">
         <v>2602.506130567962</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026568</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147909</v>
+        <v>538.2767724147916</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424963</v>
+        <v>456.9802240424969</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001442</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422749</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021365</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901211</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443643</v>
       </c>
       <c r="K43" t="n">
         <v>373.6189558173198</v>
@@ -7600,19 +7600,19 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V43" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W43" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963444</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928554</v>
+        <v>751.2212380928561</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C44" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D44" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E44" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F44" t="n">
-        <v>676.7913636872895</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G44" t="n">
         <v>329.485680192289</v>
@@ -7643,55 +7643,55 @@
         <v>89.93481253402933</v>
       </c>
       <c r="I44" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
         <v>344.8139583742029</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432325</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L44" t="n">
-        <v>1569.82097298703</v>
+        <v>835.4324121366317</v>
       </c>
       <c r="M44" t="n">
-        <v>1922.078928549017</v>
+        <v>1632.708765856522</v>
       </c>
       <c r="N44" t="n">
-        <v>2284.650594485183</v>
+        <v>2399.760058770104</v>
       </c>
       <c r="O44" t="n">
-        <v>2990.673655509379</v>
+        <v>3105.7831197943</v>
       </c>
       <c r="P44" t="n">
-        <v>3460.491244296799</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q44" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R44" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W44" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X44" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I45" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K45" t="n">
-        <v>266.7104780195275</v>
+        <v>623.6081374473457</v>
       </c>
       <c r="L45" t="n">
-        <v>513.4756059259915</v>
+        <v>870.3732653538098</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.399103845682</v>
+        <v>1177.693398633771</v>
       </c>
       <c r="N45" t="n">
-        <v>2030.810682109833</v>
+        <v>1507.556026297804</v>
       </c>
       <c r="O45" t="n">
-        <v>2310.35074732853</v>
+        <v>1787.096091516501</v>
       </c>
       <c r="P45" t="n">
-        <v>2515.373228110739</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q45" t="n">
         <v>2602.506130567962</v>
@@ -7792,52 +7792,52 @@
         <v>377.8872215001446</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422753</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021371</v>
+        <v>200.462134402137</v>
       </c>
       <c r="H46" t="n">
         <v>118.8642169901215</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14971665211003</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443643</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173203</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567937</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N46" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P46" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
@@ -7846,7 +7846,7 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963448</v>
       </c>
       <c r="Y46" t="n">
         <v>751.2212380928559</v>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562865</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>253.7986983548371</v>
       </c>
       <c r="N3" t="n">
-        <v>270.0158396049239</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>108.2245426988758</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>106.0287138250085</v>
+        <v>184.8940149111286</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>308.7128577124075</v>
+        <v>434.0896122856905</v>
       </c>
       <c r="N6" t="n">
-        <v>421.9761166209647</v>
+        <v>421.9761166209643</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>96.35422033900052</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.8336753070146</v>
+        <v>114.8336753070148</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>199.6230805871097</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>73.53204524669994</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,22 +10592,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7559036579643</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>228.8220581692198</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484367</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814711</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>228.1026080576463</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>97.82858629361044</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,22 +11066,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>116.272186146386</v>
+        <v>97.82858629361067</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>176.7176547498453</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>408.5652797751673</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>225.7559036579643</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484367</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229588</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.6423579678623</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>30.7520134099868</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23707,16 +23707,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>121.2740412742717</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>79.34404369770303</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,19 +23893,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>124.8887833815594</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,16 +23947,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.23644736529383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>15.62192169288224</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>160.1621821598338</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>161.4308946390849</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557754</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
         <v>130.21438747536</v>
@@ -24373,16 +24373,16 @@
         <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>46.74621080337255</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246837</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>92.01815992141961</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.5632668609404</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>67.36383818333981</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>161.4308946390849</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>20.31448855624043</v>
+        <v>92.01815992141961</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.5632668609404</v>
+        <v>12.73832777116088</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>233.7365577809756</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937386</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D31" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800788</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
-        <v>7.035279626662714</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>92.01815992141961</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.5632668609404</v>
+        <v>76.47663031714964</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
-        <v>267.8362668557249</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809756</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="C2" t="n">
         <v>307890.6636991063</v>
       </c>
-      <c r="C2" t="n">
-        <v>307890.6636991064</v>
-      </c>
       <c r="D2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>293271.7948032817</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="F2" t="n">
         <v>293271.7948032814</v>
@@ -26329,25 +26329,25 @@
         <v>293271.7948032814</v>
       </c>
       <c r="H2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
-        <v>297220.0642051714</v>
+        <v>297220.0642051715</v>
       </c>
       <c r="J2" t="n">
-        <v>297220.0642051714</v>
+        <v>297220.0642051716</v>
       </c>
       <c r="K2" t="n">
-        <v>297220.0642051713</v>
+        <v>297220.0642051716</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.663699106</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.663699106</v>
       </c>
       <c r="O2" t="n">
         <v>307890.6636991061</v>
@@ -26366,10 +26366,10 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794763</v>
+        <v>72744.75223794696</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936399</v>
+        <v>348321.8962936406</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428196</v>
+        <v>14720.86843428187</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113901</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303608</v>
+        <v>16913.40047303587</v>
       </c>
       <c r="L3" t="n">
-        <v>123915.6258741629</v>
+        <v>123915.6258741631</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762908</v>
+        <v>69175.08933762902</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428199</v>
+        <v>14720.8684342819</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211187</v>
+        <v>296337.3092211189</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26430,34 +26430,34 @@
         <v>43561.42148316557</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
         <v>43561.42148316557</v>
       </c>
       <c r="I4" t="n">
-        <v>49616.29565456443</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="J4" t="n">
         <v>49616.29565456441</v>
       </c>
       <c r="K4" t="n">
-        <v>49616.29565456444</v>
+        <v>49616.2956545644</v>
       </c>
       <c r="L4" t="n">
         <v>65980.20872448603</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766783</v>
       </c>
       <c r="N4" t="n">
         <v>99837.12979766788</v>
       </c>
       <c r="O4" t="n">
-        <v>99837.12979766783</v>
+        <v>99837.12979766779</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766788</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049168</v>
+        <v>56410.20653049163</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="J5" t="n">
         <v>93534.28680921868</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="N5" t="n">
-        <v>81703.90096581177</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="O5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="P5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-186511.0257013991</v>
+        <v>-186511.0257013992</v>
       </c>
       <c r="C6" t="n">
-        <v>-117601.6042904516</v>
+        <v>-117601.6042904512</v>
       </c>
       <c r="D6" t="n">
-        <v>-315496.9070503727</v>
+        <v>-315496.9070503735</v>
       </c>
       <c r="E6" t="n">
-        <v>-367436.9891054967</v>
+        <v>-367534.4482314691</v>
       </c>
       <c r="F6" t="n">
-        <v>157723.0473713992</v>
+        <v>157625.5882454271</v>
       </c>
       <c r="G6" t="n">
-        <v>157723.0473713992</v>
+        <v>157625.588245427</v>
       </c>
       <c r="H6" t="n">
-        <v>157723.0473713993</v>
+        <v>157625.588245427</v>
       </c>
       <c r="I6" t="n">
-        <v>139348.6133071063</v>
+        <v>139277.475977147</v>
       </c>
       <c r="J6" t="n">
-        <v>81814.78687024933</v>
+        <v>81743.64954028989</v>
       </c>
       <c r="K6" t="n">
-        <v>137156.081268352</v>
+        <v>137084.9439383931</v>
       </c>
       <c r="L6" t="n">
-        <v>20279.72328043199</v>
+        <v>20279.72328043163</v>
       </c>
       <c r="M6" t="n">
-        <v>57174.54359799738</v>
+        <v>57174.5435979974</v>
       </c>
       <c r="N6" t="n">
-        <v>111628.7645013448</v>
+        <v>111628.7645013444</v>
       </c>
       <c r="O6" t="n">
         <v>126349.6329356265</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.615839366057084e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="K2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964061</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
       <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020379</v>
+        <v>91.59216845020327</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690336</v>
+        <v>341.8733101690329</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513754</v>
+        <v>951.8714581513751</v>
       </c>
     </row>
   </sheetData>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.263256414560601e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678821</v>
+        <v>49.73080458678828</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285249</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107849</v>
+        <v>56.57090773107798</v>
       </c>
       <c r="D3" t="n">
-        <v>286.1514957668828</v>
+        <v>286.1514957668834</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667815</v>
+        <v>65.71679646667755</v>
       </c>
       <c r="D4" t="n">
-        <v>332.413962585522</v>
+        <v>332.4139625855227</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667837</v>
+        <v>65.71679646667755</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855218</v>
+        <v>332.4139625855227</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968197</v>
+        <v>277.5841853968195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285245</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667815</v>
+        <v>65.71679646667755</v>
       </c>
       <c r="L4" t="n">
-        <v>332.413962585522</v>
+        <v>332.4139625855227</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>343.8633866767785</v>
       </c>
       <c r="G2" t="n">
-        <v>241.8401813588546</v>
+        <v>139.0054348249641</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27433,7 +27433,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,13 +27464,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>69.07664070098792</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>62.85234443256221</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>154.4623164153581</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>7.728882963192878</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>23.39958160197398</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>40.05705990322821</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>241.2586900302532</v>
+        <v>65.00273557267849</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>99.30826052919883</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470834</v>
+        <v>196.2804842470835</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>200.6294905367618</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.484011504269</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>27.85779050943609</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>10.35742792969299</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>137.1465075933366</v>
       </c>
       <c r="H6" t="n">
-        <v>110.3327465485026</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>82.6136279237349</v>
+        <v>82.61362792373492</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923666</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.0238047511339</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.456098740481764</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9284209250621</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,31 +27774,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>46.84299728881838</v>
       </c>
       <c r="G7" t="n">
         <v>167.8258131530567</v>
       </c>
       <c r="H7" t="n">
-        <v>83.8921739167079</v>
+        <v>160.7586947903199</v>
       </c>
       <c r="I7" t="n">
         <v>150.4834766775325</v>
       </c>
       <c r="J7" t="n">
-        <v>81.6819293947509</v>
+        <v>81.68192939475097</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.080181780086171</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571361</v>
+        <v>72.33162581571369</v>
       </c>
       <c r="R7" t="n">
         <v>169.866918177912</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>96.00167018572461</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>323.7220634917288</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>1.85656349999752</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>128.9114554736399</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="C25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="D25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="E25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="F25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="G25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="H25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="I25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="K25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="L25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="M25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="N25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="P25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="R25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="S25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="T25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="U25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="V25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="W25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="X25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="C28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="D28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="E28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="F28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="G28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="H28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="I28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="K28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="L28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="M28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="N28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="P28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="R28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="S28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="T28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="U28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="V28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="W28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="X28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="C31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="D31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="E31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="F31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="G31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="H31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="I31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="J31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="K31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="L31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="M31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="N31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="P31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="R31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="S31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="T31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="U31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="V31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="W31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="X31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285237</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964199</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964096</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964045</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964193</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964096</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964193</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3682097224128792</v>
+        <v>0.3682097224128772</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660901</v>
+        <v>3.77092781966088</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332254</v>
+        <v>14.19540532332246</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992764014</v>
+        <v>31.25133992763996</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737733</v>
+        <v>46.83765747737706</v>
       </c>
       <c r="L5" t="n">
-        <v>58.1062557696705</v>
+        <v>58.10625576967017</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542063054</v>
+        <v>64.65440542063017</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443613</v>
+        <v>65.70058129443576</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719306</v>
+        <v>62.03919586719271</v>
       </c>
       <c r="P5" t="n">
-        <v>52.9490183451251</v>
+        <v>52.9490183451248</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121385</v>
+        <v>39.76250766121362</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551805</v>
+        <v>23.12955397551792</v>
       </c>
       <c r="S5" t="n">
-        <v>8.390579049483495</v>
+        <v>8.390579049483447</v>
       </c>
       <c r="T5" t="n">
-        <v>1.61183805986238</v>
+        <v>1.611838059862371</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779303034</v>
+        <v>0.02945677779303017</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740232</v>
+        <v>0.1970095698740222</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902697687993856</v>
+        <v>1.902697687993846</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783004927680187</v>
+        <v>6.78300492768015</v>
       </c>
       <c r="J6" t="n">
-        <v>18.61308396779095</v>
+        <v>18.61308396779084</v>
       </c>
       <c r="K6" t="n">
-        <v>31.8127251493505</v>
+        <v>31.81272514935032</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742772</v>
+        <v>42.77613489742749</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536106</v>
+        <v>49.91773180536078</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140221</v>
+        <v>51.23890563140193</v>
       </c>
       <c r="O6" t="n">
-        <v>46.87358831998306</v>
+        <v>46.8735883199828</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707532993</v>
+        <v>37.62018707532972</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.1480987790069</v>
+        <v>25.14809877900676</v>
       </c>
       <c r="R6" t="n">
-        <v>12.23187487340646</v>
+        <v>12.2318748734064</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703894</v>
+        <v>3.659366352703874</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7940868189220496</v>
+        <v>0.7940868189220451</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296115591276469</v>
+        <v>0.01296115591276462</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020068</v>
+        <v>0.1651662054020059</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119662</v>
+        <v>1.468477717119653</v>
       </c>
       <c r="I7" t="n">
-        <v>4.966998249725807</v>
+        <v>4.966998249725779</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192188</v>
+        <v>11.67725072192182</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579679</v>
+        <v>19.18931004579668</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040382</v>
+        <v>24.55571021040368</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224367</v>
+        <v>25.89055345224352</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938166</v>
+        <v>25.27493395938152</v>
       </c>
       <c r="O7" t="n">
-        <v>23.34549237809457</v>
+        <v>23.34549237809444</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789362</v>
+        <v>19.9761017878935</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598077</v>
+        <v>13.83041743598069</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257504</v>
+        <v>7.426473199257463</v>
       </c>
       <c r="S7" t="n">
-        <v>2.878396506869518</v>
+        <v>2.878396506869501</v>
       </c>
       <c r="T7" t="n">
-        <v>0.705710150354029</v>
+        <v>0.705710150354025</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009009065749200382</v>
+        <v>0.009009065749200332</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>130.751251524742</v>
       </c>
       <c r="N3" t="n">
-        <v>158.2658797799247</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891755</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302762</v>
+        <v>19.30205057302745</v>
       </c>
       <c r="K5" t="n">
-        <v>150.8932190035615</v>
+        <v>150.8932190035613</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0010553501337</v>
+        <v>240.0010553501334</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861903</v>
+        <v>283.8217056861899</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098294</v>
+        <v>273.634442109829</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082517</v>
+        <v>212.7411657082513</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613382</v>
+        <v>143.5147307613379</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666904</v>
+        <v>29.77180844666881</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>17.86649264153298</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>78.86530108611996</v>
       </c>
       <c r="L6" t="n">
-        <v>275.0621004210127</v>
+        <v>275.0621004210125</v>
       </c>
       <c r="M6" t="n">
-        <v>216.4965555957502</v>
+        <v>341.8733101690329</v>
       </c>
       <c r="N6" t="n">
-        <v>341.8733101690336</v>
+        <v>341.8733101690329</v>
       </c>
       <c r="O6" t="n">
-        <v>298.1396631522682</v>
+        <v>298.1396631522679</v>
       </c>
       <c r="P6" t="n">
-        <v>222.1085483009369</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547071996</v>
+        <v>52.14573547071981</v>
       </c>
       <c r="M7" t="n">
-        <v>65.47443041408425</v>
+        <v>65.47443041408411</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633861025</v>
+        <v>69.40710633861011</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213425</v>
+        <v>47.93062029213412</v>
       </c>
       <c r="P7" t="n">
-        <v>17.2546610527871</v>
+        <v>17.25466105278699</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>510.0474576375759</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841792</v>
+        <v>30.9088557084179</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
@@ -36528,13 +36528,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P25" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472715</v>
+        <v>57.62678551472713</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841792</v>
+        <v>30.9088557084179</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36765,13 +36765,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P28" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472715</v>
+        <v>57.62678551472713</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36850,10 +36850,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841792</v>
+        <v>30.9088557084179</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
@@ -37002,13 +37002,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P31" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472715</v>
+        <v>57.62678551472713</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>581.5720203872434</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N35" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>561.1764840016216</v>
       </c>
       <c r="P35" t="n">
-        <v>248.8073173394296</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K38" t="n">
-        <v>432.6469516168145</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>355.8161167292791</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>366.2340059961277</v>
@@ -37558,13 +37558,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>346.6359036330402</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>355.8161167292791</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>482.5061921425137</v>
+        <v>464.0625922897383</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1845934903001</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9122281478582</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,25 +38017,25 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292791</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>366.2340059961277</v>
+        <v>774.799285771295</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>474.5632209973939</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.124745373425</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
